--- a/cms/databases/NiceGames.xlsx
+++ b/cms/databases/NiceGames.xlsx
@@ -266,9 +266,6 @@
     <t>Programing</t>
   </si>
   <si>
-    <t>dad8138eaa7b7e3c2bc9</t>
-  </si>
-  <si>
     <t>Princess of Isometria</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>«REILLY»</t>
   </si>
   <si>
-    <t>Color plus Color</t>
-  </si>
-  <si>
     <t>Boxes and Baloons</t>
   </si>
   <si>
@@ -363,6 +357,12 @@
   </si>
   <si>
     <t>https://rosden.itch.io/skyscraper</t>
+  </si>
+  <si>
+    <t>Colour plus Colour</t>
+  </si>
+  <si>
+    <t>df6e531d7f76b581dd66ecb7ca793d7a</t>
   </si>
 </sst>
 </file>
@@ -809,10 +809,10 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,13 +834,13 @@
         <v>3</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>«CUBESTUDIO«P»»</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>10</v>
@@ -965,7 +965,7 @@
         <v>«MARCOSD«P»»</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
@@ -1001,14 +1001,14 @@
         <v>23</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" s="8" t="str">
         <f>Tags!$A$13</f>
@@ -1032,14 +1032,14 @@
         <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I7" s="8" t="str">
         <f>Tags!$A$11</f>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>45</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>45</v>
@@ -1156,11 +1156,11 @@
         <v>32</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>42</v>
@@ -1642,20 +1642,20 @@
       </c>
       <c r="B27" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>«PUZZLESCRIPT-URL»dad8138eaa7b7e3c2bc9</v>
+        <v>«PUZZLESCRIPT-URL»df6e531d7f76b581dd66ecb7ca793d7a</v>
       </c>
       <c r="C27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>«MAJAVA«P»»</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="15" t="s">
@@ -1669,7 +1669,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="str">
         <f t="shared" si="9"/>
-        <v>color-plus-color</v>
+        <v>colour-plus-colour</v>
       </c>
       <c r="B28" s="12" t="str">
         <f t="shared" si="2"/>
@@ -1680,14 +1680,14 @@
         <v>«REILLY«P»»</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H28" s="15" t="s">
         <v>64</v>
@@ -1711,14 +1711,14 @@
         <v>«REILLY«P»»</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="F29" s="8"/>
       <c r="G29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>64</v>
@@ -1742,10 +1742,10 @@
         <v>«CONNORSES«P»»</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" s="8">
         <v>8970711</v>
@@ -1773,13 +1773,13 @@
         <v>«CONNORSES«P»»</v>
       </c>
       <c r="D31" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="F31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="15" t="s">
@@ -1807,10 +1807,10 @@
         <v>77</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>45</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>IF(COUNTIFS(EN!$I$1:$I$3,"*"&amp;Tags!$A10&amp;"*",EN!$B$1:$B$3,"Yes")&gt;0,"Yes","No")</f>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>IF(COUNTIFS(EN!$I$1:$I$3,"*"&amp;Tags!$A11&amp;"*",EN!$B$1:$B$3,"Yes")&gt;0,"Yes","No")</f>
@@ -1939,7 +1939,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>2</v>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>2</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>2</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>2</v>
